--- a/exploratory_data_analysis/aula2/9_Modulo 3 – Sessão 2 -  Respostas Questões.xlsx
+++ b/exploratory_data_analysis/aula2/9_Modulo 3 – Sessão 2 -  Respostas Questões.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Familia\Eu\ENI\EDIT\202501 Data Science\MÓDULO 3 - EXPLORATORY DATA ANALYTICS\AULA 2\Questionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/datascience/datascience_course/exploratory_data_analysis/aula2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43071E3-C73F-4B7A-8B9E-AF326A63FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{D43071E3-C73F-4B7A-8B9E-AF326A63FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4771399C-661C-445D-93F6-7B4457836690}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>QUESTIONÁRIO INDIVIDUAL</t>
   </si>
@@ -93,6 +93,19 @@
   </si>
   <si>
     <t>Modulo 3 – Sessão 2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import pandas as pd
+data.drop_duplicates(inplace=True)  
+data['Data_Ref'] = data['Data_Ref'].str.replace("-", "/")  
+data['Trans_Desc'] = data['Trans_Desc'].str.upper()  
+data['Data_Ref'] = pd.to_datetime(data['Data_Ref'])  </t>
+  </si>
+  <si>
+    <t>Andreia Filipa Araújo Campos</t>
   </si>
 </sst>
 </file>
@@ -477,22 +490,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,30 +844,33 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.44140625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -862,7 +878,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
@@ -870,7 +886,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -888,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -896,23 +912,29 @@
         <v>9</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -922,9 +944,11 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -933,10 +957,12 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -946,9 +972,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -958,9 +986,11 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -969,10 +999,12 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -980,23 +1012,27 @@
         <v>16</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="214.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="25"/>
       <c r="C15" s="31"/>
@@ -1004,11 +1040,13 @@
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="17" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/exploratory_data_analysis/aula2/9_Modulo 3 – Sessão 2 -  Respostas Questões.xlsx
+++ b/exploratory_data_analysis/aula2/9_Modulo 3 – Sessão 2 -  Respostas Questões.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/datascience/datascience_course/exploratory_data_analysis/aula2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{D43071E3-C73F-4B7A-8B9E-AF326A63FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4771399C-661C-445D-93F6-7B4457836690}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{D43071E3-C73F-4B7A-8B9E-AF326A63FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2AA9CD-4DBE-4F2E-9E93-A09E9C409DFE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
@@ -423,15 +423,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -453,9 +444,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -483,12 +471,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -506,6 +488,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,53 +844,52 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>45687</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -905,146 +904,146 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="31">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="31">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="32">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="214.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1058,6 +1057,7 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:F15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>